--- a/Unity/Assets/Config/Excel/StartConfig/RouterTest/__tables__.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/RouterTest/__tables__.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/icepower/Work/Projects/My/X-ET7/Unity/Assets/Config/LubanExcel/Datas/StartConfig/RouterTest/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\DX01DemoProj\Unity\LubanExcel\Datas\StartConfig\Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{454114E0-207D-7244-8A26-A6CD5BDAC911}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{953C7417-10D6-4109-A247-B659CCF5E637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35560" windowHeight="11260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>##var</t>
   </si>
@@ -31,7 +42,7 @@
     <t>value_type</t>
   </si>
   <si>
-    <t>define_from_file</t>
+    <t>read_schema_from_file</t>
   </si>
   <si>
     <t>input</t>
@@ -49,13 +60,10 @@
     <t>comment</t>
   </si>
   <si>
-    <t>patch_input</t>
-  </si>
-  <si>
     <t>tags</t>
   </si>
   <si>
-    <t>options</t>
+    <t>output</t>
   </si>
   <si>
     <t>##</t>
@@ -85,9 +93,6 @@
     <t>注释</t>
   </si>
   <si>
-    <t>分支文件列表</t>
-  </si>
-  <si>
     <t>输出文件名</t>
   </si>
   <si>
@@ -106,23 +111,19 @@
     <t>取值c|s|e，可以有多个，以逗号','分隔。空则表示属于所有分组</t>
   </si>
   <si>
-    <t>用于本地化。可以多个，以逗号分隔</t>
-  </si>
-  <si>
     <t>默认为 &lt;module&gt;_&lt;name&gt;.&lt;suffix&gt;</t>
   </si>
   <si>
-    <t>output</t>
+    <t>StartMachineConfigCategory</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>StartMachineConfigCategory</t>
-  </si>
-  <si>
     <t>StartMachineConfig</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>StartMachineConfig.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>StartProcessConfigCategory</t>
@@ -132,6 +133,7 @@
   </si>
   <si>
     <t>StartProcessConfig.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>StartSceneConfigCategory</t>
@@ -141,6 +143,7 @@
   </si>
   <si>
     <t>StartSceneConfig.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>StartZoneConfigCategory</t>
@@ -150,13 +153,14 @@
   </si>
   <si>
     <t>StartZoneConfig.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,15 +172,13 @@
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
-      <family val="4"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <family val="4"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -189,9 +191,16 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="DengXian"/>
-      <family val="4"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -233,10 +242,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -515,183 +524,213 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="29.83203125" customWidth="1"/>
-    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" customWidth="1"/>
+    <col min="2" max="2" width="30.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.25" bestFit="1" customWidth="1"/>
     <col min="6" max="9" width="18" customWidth="1"/>
-    <col min="10" max="10" width="18.33203125" customWidth="1"/>
+    <col min="11" max="11" width="36.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" s="1" customFormat="1">
-      <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="1" t="s">
+    <row r="3" spans="1:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" s="1" customFormat="1">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="1" t="s">
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="B4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="D4" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="L4" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3" t="str">
+        <f>B4</f>
+        <v>StartMachineConfigCategory</v>
+      </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D5" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3" t="str">
+        <f t="shared" ref="K5:K9" si="0">B5</f>
+        <v>StartProcessConfigCategory</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D6" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>StartSceneConfigCategory</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D7" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>StartZoneConfigCategory</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
